--- a/FIS-July2022-FinalScenarios.xlsx
+++ b/FIS-July2022-FinalScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIS Global\July2022Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C97EB36-E865-4DDA-B4AE-F900F58AD8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05890E16-499D-4529-B380-08127DB8C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F0BC89C9-8EE1-4582-8BA2-EE5C88E2889E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="146">
   <si>
     <t xml:space="preserve">Vaibhav Dasrao Ambhore </t>
   </si>
@@ -354,13 +354,133 @@
   </si>
   <si>
     <t>FIS Video Library using MS Arch</t>
+  </si>
+  <si>
+    <t>Cloud Machine</t>
+  </si>
+  <si>
+    <t>PN01</t>
+  </si>
+  <si>
+    <t>rps@12345</t>
+  </si>
+  <si>
+    <t>PN02</t>
+  </si>
+  <si>
+    <t>PN03</t>
+  </si>
+  <si>
+    <t>PN04</t>
+  </si>
+  <si>
+    <t>PN05</t>
+  </si>
+  <si>
+    <t>PN06</t>
+  </si>
+  <si>
+    <t>PN07</t>
+  </si>
+  <si>
+    <t>PN08</t>
+  </si>
+  <si>
+    <t>PN09</t>
+  </si>
+  <si>
+    <t>PN10</t>
+  </si>
+  <si>
+    <t>PN11</t>
+  </si>
+  <si>
+    <t>PN12</t>
+  </si>
+  <si>
+    <t>PN13</t>
+  </si>
+  <si>
+    <t>PN14</t>
+  </si>
+  <si>
+    <t>PN15</t>
+  </si>
+  <si>
+    <t>PN16</t>
+  </si>
+  <si>
+    <t>PN17</t>
+  </si>
+  <si>
+    <t>PN18</t>
+  </si>
+  <si>
+    <t>PN19</t>
+  </si>
+  <si>
+    <t>PN20</t>
+  </si>
+  <si>
+    <t>PN21</t>
+  </si>
+  <si>
+    <t>PN22</t>
+  </si>
+  <si>
+    <t>PN23</t>
+  </si>
+  <si>
+    <t>PN24</t>
+  </si>
+  <si>
+    <t>PN25</t>
+  </si>
+  <si>
+    <t>PN26</t>
+  </si>
+  <si>
+    <t>PN27</t>
+  </si>
+  <si>
+    <t>PN28</t>
+  </si>
+  <si>
+    <t>PN29</t>
+  </si>
+  <si>
+    <t>PN30</t>
+  </si>
+  <si>
+    <t>PN31</t>
+  </si>
+  <si>
+    <t>PN32</t>
+  </si>
+  <si>
+    <t>PN33</t>
+  </si>
+  <si>
+    <t>PN34</t>
+  </si>
+  <si>
+    <t>PN35</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Cloud Url:</t>
+  </si>
+  <si>
+    <t>URL : https://cloud2.rpsconsulting.in/console/#/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +509,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -423,12 +549,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,21 +625,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,20 +646,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,10 +671,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,9 +683,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -867,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E150FA09-1D85-43A6-A352-96B41064171D}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,9 +1024,11 @@
     <col min="3" max="3" width="80.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="14" width="37.7109375" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>87</v>
       </c>
@@ -906,8 +1052,14 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,8 +1083,14 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -956,8 +1114,14 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -981,8 +1145,14 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1176,14 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1207,14 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1056,8 +1238,14 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1081,8 +1269,14 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1106,8 +1300,14 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1129,8 +1329,14 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1152,8 +1358,14 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1177,8 +1389,14 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1202,8 +1420,14 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1225,8 +1449,14 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1248,8 +1478,14 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1273,8 +1509,14 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1296,8 +1538,14 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1321,8 +1569,14 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1344,8 +1598,14 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1369,8 +1629,14 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1394,8 +1660,14 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1419,8 +1691,14 @@
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1444,8 +1722,14 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1469,8 +1753,14 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -1492,8 +1782,14 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -1517,8 +1813,14 @@
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1540,8 +1842,14 @@
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -1565,8 +1873,14 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -1590,8 +1904,14 @@
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -1615,8 +1935,14 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -1640,8 +1966,14 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="O31" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -1665,8 +1997,14 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="O32" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
@@ -1690,8 +2028,14 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
@@ -1715,8 +2059,14 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="O34" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -1740,8 +2090,14 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -1765,6 +2121,20 @@
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
+      <c r="N36" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="72">
@@ -1877,8 +2247,9 @@
     <hyperlink ref="B34" r:id="rId33" display="mailto:arifshabbir.manyar@fisglobal.com" xr:uid="{1B09AE02-8A4A-4D2B-9C3C-F677B3B7B00C}"/>
     <hyperlink ref="B35" r:id="rId34" display="mailto:shashikant@fisglobal.com" xr:uid="{FB0AD9B5-07C4-4730-ABB8-A30997008B15}"/>
     <hyperlink ref="B36" r:id="rId35" display="mailto:sumit.mehta2@fisglobal.com" xr:uid="{C95F1F3B-F2F5-4AFF-BB19-0D98F1AD2144}"/>
+    <hyperlink ref="B38" r:id="rId36" location="/" display="https://cloud2.rpsconsulting.in/console/ - /" xr:uid="{938ABA8F-054C-4765-90B9-3758585E4458}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>